--- a/src/test/resources/excel/file2.xlsx
+++ b/src/test/resources/excel/file2.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="480" yWindow="60" windowWidth="22038" windowHeight="9654"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="f2-s1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -384,7 +384,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
